--- a/statements/ADBE/consolidated_statements_ADBE.xlsx
+++ b/statements/ADBE/consolidated_statements_ADBE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\financial_statements\statements\ADBE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF3BF1-0F7A-4C6F-B7E7-E078428004AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E579074-E6C1-4097-9F14-CA557FC0CBA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30765" yWindow="2385" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1700,7 +1700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1719,6 +1719,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2024,10 +2025,10 @@
   <dimension ref="A1:EH73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="BF65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BT23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="CH36" sqref="CH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8139,7 +8140,7 @@
       <c r="BT32" s="4"/>
       <c r="BU32" s="4"/>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -8347,8 +8348,44 @@
       <c r="BU33" s="5">
         <v>5606</v>
       </c>
+      <c r="BW33" s="5">
+        <v>4262</v>
+      </c>
+      <c r="BX33" s="5">
+        <v>4386</v>
+      </c>
+      <c r="BY33" s="5">
+        <v>4433</v>
+      </c>
+      <c r="BZ33" s="5">
+        <v>4525</v>
+      </c>
+      <c r="CA33" s="5">
+        <v>4655</v>
+      </c>
+      <c r="CB33" s="5">
+        <v>4816</v>
+      </c>
+      <c r="CC33" s="5">
+        <v>4890</v>
+      </c>
+      <c r="CD33" s="5">
+        <v>5048</v>
+      </c>
+      <c r="CE33" s="5">
+        <v>5182</v>
+      </c>
+      <c r="CF33" s="5">
+        <v>5309</v>
+      </c>
+      <c r="CG33" s="5">
+        <v>5408</v>
+      </c>
+      <c r="CH33" s="5">
+        <v>5606</v>
+      </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>104</v>
       </c>
@@ -8556,8 +8593,26 @@
       <c r="BU34" s="5">
         <v>616</v>
       </c>
+      <c r="BZ34" s="10">
+        <f>BW33+BX33+BY33+BZ33</f>
+        <v>17606</v>
+      </c>
+      <c r="CA34" s="10"/>
+      <c r="CB34" s="10"/>
+      <c r="CC34" s="10"/>
+      <c r="CD34" s="10">
+        <f t="shared" ref="CA34:CH34" si="1">CA33+CB33+CC33+CD33</f>
+        <v>19409</v>
+      </c>
+      <c r="CE34" s="10"/>
+      <c r="CF34" s="10"/>
+      <c r="CG34" s="10"/>
+      <c r="CH34" s="10">
+        <f t="shared" si="1"/>
+        <v>21505</v>
+      </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>105</v>
       </c>
@@ -8765,8 +8820,16 @@
       <c r="BU35" s="5">
         <v>4990</v>
       </c>
+      <c r="CD35">
+        <f>(CD34/BZ34)-1</f>
+        <v>0.10240826990798602</v>
+      </c>
+      <c r="CH35">
+        <f>(CH34/CD34)-1</f>
+        <v>0.10799113813179462</v>
+      </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>106</v>
       </c>
@@ -8975,7 +9038,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
@@ -9184,7 +9247,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>108</v>
       </c>
@@ -9393,7 +9456,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>109</v>
       </c>
@@ -9602,7 +9665,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>110</v>
       </c>
@@ -9811,7 +9874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>111</v>
       </c>
@@ -10020,7 +10083,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>112</v>
       </c>
@@ -10229,7 +10292,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>113</v>
       </c>
@@ -10438,7 +10501,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>114</v>
       </c>
@@ -10647,7 +10710,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>180</v>
       </c>
@@ -10856,7 +10919,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>247</v>
       </c>
@@ -11065,7 +11128,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>313</v>
       </c>
@@ -11274,7 +11337,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>374</v>
       </c>
@@ -13675,47 +13738,47 @@
         <v>-2.3463162834350069</v>
       </c>
       <c r="BX60">
-        <f t="shared" ref="BX60:CH60" si="1">(BX58/BX59)*100</f>
+        <f t="shared" ref="BX60:CH60" si="2">(BX58/BX59)*100</f>
         <v>-2.8727770177838576</v>
       </c>
       <c r="BY60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.8197608842770134</v>
       </c>
       <c r="BZ60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0110497237569058</v>
       </c>
       <c r="CA60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.1697099892588616</v>
       </c>
       <c r="CB60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.5124584717607976</v>
       </c>
       <c r="CC60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.8609406952965237</v>
       </c>
       <c r="CD60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.9310618066561015</v>
       </c>
       <c r="CE60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.7140100347356233</v>
       </c>
       <c r="CF60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.77227349783386701</v>
       </c>
       <c r="CG60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.0539940828402368</v>
       </c>
       <c r="CH60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.85622547270781302</v>
       </c>
       <c r="CI60">
